--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artiom/Documents/Library/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01663C8-2DCF-4C47-81D3-72E116B58065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE6B1C4-722C-A240-A111-C830E726C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="1240" windowWidth="28240" windowHeight="16500" xr2:uid="{0062F99A-3654-7F4E-B7B5-450A03F4F0F2}"/>
+    <workbookView xWindow="4860" yWindow="1360" windowWidth="23020" windowHeight="14980" xr2:uid="{0062F99A-3654-7F4E-B7B5-450A03F4F0F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -262,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A4CFC57-B293-474A-9CD6-5E2A20D51CA8}" name="Таблица1" displayName="Таблица1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{9A4CFC57-B293-474A-9CD6-5E2A20D51CA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A4CFC57-B293-474A-9CD6-5E2A20D51CA8}" name="Таблица1" displayName="Таблица1" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{9A4CFC57-B293-474A-9CD6-5E2A20D51CA8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3951FFBB-0F5D-034B-8774-FF36A4DDA55F}" name="No." dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2579C008-BE7D-D64D-84D4-9508EA276F33}" name="data" dataDxfId="3"/>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCFAF38-B7C1-D54B-B41A-DBBE39757800}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,6 +653,176 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45194</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45195</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45196</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45197</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45198</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45199</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45201</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45202</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45203</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artiom/Documents/Library/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE6B1C4-722C-A240-A111-C830E726C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44733AB0-68C4-9742-ABC8-B723A235C469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="1360" windowWidth="23020" windowHeight="14980" xr2:uid="{0062F99A-3654-7F4E-B7B5-450A03F4F0F2}"/>
   </bookViews>
@@ -101,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -124,19 +124,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -145,6 +273,22 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -228,9 +372,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -246,6 +388,36 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -262,14 +434,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A4CFC57-B293-474A-9CD6-5E2A20D51CA8}" name="Таблица1" displayName="Таблица1" ref="A1:E14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A4CFC57-B293-474A-9CD6-5E2A20D51CA8}" name="Таблица1" displayName="Таблица1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:E14" xr:uid="{9A4CFC57-B293-474A-9CD6-5E2A20D51CA8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+    <sortCondition ref="E1:E14"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3951FFBB-0F5D-034B-8774-FF36A4DDA55F}" name="No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2579C008-BE7D-D64D-84D4-9508EA276F33}" name="data" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1F6FD87D-E997-E249-A89B-55FF4A3B7452}" name="Autorul" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{32D489D5-84D9-054E-A516-AF30095BF506}" name="Denumirea operei" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{DB9103E2-8D75-C741-91DB-FC946F5C2855}" name="Pozitia curenta" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3951FFBB-0F5D-034B-8774-FF36A4DDA55F}" name="No." dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2579C008-BE7D-D64D-84D4-9508EA276F33}" name="data" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{1F6FD87D-E997-E249-A89B-55FF4A3B7452}" name="Autorul" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{32D489D5-84D9-054E-A516-AF30095BF506}" name="Denumirea operei" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DB9103E2-8D75-C741-91DB-FC946F5C2855}" name="Pozitia curenta" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCFAF38-B7C1-D54B-B41A-DBBE39757800}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,45 +761,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="4">
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
       <c r="B3" s="2">
-        <v>45192</v>
+        <v>45195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -632,80 +807,80 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="4">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>45193</v>
+        <v>45198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45201</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45191</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>45194</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45195</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45196</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -717,84 +892,84 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>45198</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45203</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45193</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B12" s="2">
+        <v>45196</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B13" s="2">
         <v>45199</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45200</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45201</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45202</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -802,26 +977,39 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45202</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>45203</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
